--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Case as on date 300224</t>
+    <t>Case as on date 310324</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5">
-        <v>34543</v>
+        <v>7696345</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>

--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Case Updation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -492,7 +488,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,7 +581,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5">
-        <v>7696345</v>
+        <v>9818753</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>

--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="Case Updation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -110,7 +114,7 @@
     <t>Loss</t>
   </si>
   <si>
-    <t>Case as on date 310324</t>
+    <t>Case as on date 20072024</t>
   </si>
 </sst>
 </file>
@@ -488,7 +492,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,7 +585,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5">
-        <v>9818753</v>
+        <v>29152024</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>

--- a/TestData/CaseUpdation.xlsx
+++ b/TestData/CaseUpdation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Case Updation" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5">
-        <v>29152024</v>
+        <v>8737225</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
